--- a/RUDN/Importance/Varible_muatal_class_in_Central America.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Central America.xlsx
@@ -14,128 +14,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="468">
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
   <si>
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 22, female, interpolated</t>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
     <t>Female population 15-19</t>
   </si>
   <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Country_code</t>
   </si>
   <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
+    <t>Population, total</t>
+  </si>
+  <si>
     <t>Population, female</t>
   </si>
   <si>
-    <t>Population, total</t>
-  </si>
-  <si>
     <t>Population, male</t>
   </si>
   <si>
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
     <t>Male population 10-14</t>
   </si>
   <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
@@ -205,21 +205,21 @@
     <t>Population ages 0-14, female</t>
   </si>
   <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
     <t>Population ages 15-64, total</t>
   </si>
   <si>
     <t>Female population 05-09</t>
   </si>
   <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
     <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
@@ -238,18 +238,18 @@
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 01, female, interpolated</t>
+    <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
@@ -316,1018 +316,1030 @@
     <t>Male population 30-34</t>
   </si>
   <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
     <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
     <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
+    <t>Children in employment, female (% of female children ages 7-14)</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
     <t>Income share held by lowest 20%</t>
   </si>
   <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
     <t>Children in employment, male (% of male children ages 7-14)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Children in employment, female (% of female children ages 7-14)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Age at first marriage, female</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
     <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Low-birthweight babies (% of births)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Literacy rate, adult male (% of males ages 15 and above)</t>
   </si>
   <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Urban poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Informal employment, female (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
     <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
   </si>
   <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Low-birthweight babies (% of births)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Urban poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Rural poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
+    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
     <t>Time-related underemployment, male (% of employment)</t>
   </si>
   <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Rural poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
   </si>
   <si>
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
     <t>Population ages 25-29, male (% of male population)</t>
@@ -1336,88 +1348,73 @@
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Status under enhanced HIPC initiative</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
-    <t>Status under enhanced HIPC initiative</t>
+    <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Population ages 25-29, female (% of female population)</t>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Reion_sub_code</t>
   </si>
   <si>
     <t>Population ages 30-34, female (% of female population)</t>
@@ -1778,7 +1775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B470"/>
+  <dimension ref="A1:B469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2138,7 +2135,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.8915809578780044</v>
+        <v>0.8896578809549275</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2298,7 +2295,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.8044659895130362</v>
+        <v>0.8054991538097749</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2306,7 +2303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.8025356282076745</v>
+        <v>0.8046910048822822</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2314,7 +2311,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.8017648711869176</v>
+        <v>0.8044659895130362</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2322,7 +2319,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.8011250462682467</v>
+        <v>0.8025356282076745</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2330,7 +2327,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.7966850512456725</v>
+        <v>0.7993619856109553</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2386,7 +2383,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.7680385280855746</v>
+        <v>0.7684010128230592</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2394,7 +2391,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.7664779358999823</v>
+        <v>0.7680385280855746</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2402,7 +2399,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.7657885078067082</v>
+        <v>0.7654171910892376</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2410,7 +2407,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7654171910892376</v>
+        <v>0.7647201317383321</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2482,7 +2479,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.7280856924596619</v>
+        <v>0.7306612419102114</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2490,7 +2487,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.7245945749484655</v>
+        <v>0.7240885020739714</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2554,7 +2551,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.7049738150208613</v>
+        <v>0.7002996697217163</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2562,7 +2559,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6931761308674083</v>
+        <v>0.688729015482793</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2570,7 +2567,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6775301494816064</v>
+        <v>0.686179939862166</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2594,7 +2591,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.6645699800590386</v>
+        <v>0.6638489676460142</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2602,7 +2599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.6638489676460142</v>
+        <v>0.6605582317899386</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2610,7 +2607,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.6508247397421274</v>
+        <v>0.659427614426584</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2618,7 +2615,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.6500961244528314</v>
+        <v>0.6517571835146243</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2634,7 +2631,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.6450748329196605</v>
+        <v>0.6395752890807336</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2642,7 +2639,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.6397374860318701</v>
+        <v>0.6379232240520014</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2650,7 +2647,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.6379232240520014</v>
+        <v>0.6347537142080735</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2658,7 +2655,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.6347537142080735</v>
+        <v>0.6326402458122924</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2666,7 +2663,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.6326402458122924</v>
+        <v>0.630896064169995</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2674,7 +2671,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.630896064169995</v>
+        <v>0.6285846038725735</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2682,7 +2679,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.6303504871169905</v>
+        <v>0.6221692209636049</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2690,7 +2687,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.6229756295135993</v>
+        <v>0.6121789073896866</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2698,7 +2695,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.6170188936352157</v>
+        <v>0.6107616901541164</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2706,7 +2703,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.6121789073896866</v>
+        <v>0.6090032524637605</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2714,7 +2711,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.6107616901541164</v>
+        <v>0.6052966567140443</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2746,7 +2743,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.5999872398237451</v>
+        <v>0.6008669899833121</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2762,7 +2759,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.5926378831360042</v>
+        <v>0.5999872398237451</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2770,7 +2767,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.5895561854032769</v>
+        <v>0.5926378831360042</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2778,7 +2775,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.5869521465184238</v>
+        <v>0.5895561854032769</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2786,7 +2783,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.5863153901124365</v>
+        <v>0.5869521465184238</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2818,7 +2815,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.5782348488588187</v>
+        <v>0.575504271916474</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2826,7 +2823,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.5769404165309222</v>
+        <v>0.5748681353638136</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2834,7 +2831,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.5710193729136694</v>
+        <v>0.5720521159933931</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2850,7 +2847,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.5693213091474729</v>
+        <v>0.5697316342680714</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2858,7 +2855,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.5678085573449945</v>
+        <v>0.5656572555119943</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2866,7 +2863,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.5656572555119943</v>
+        <v>0.5631050732667304</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2874,7 +2871,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.5631050732667304</v>
+        <v>0.5629901042871506</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2882,7 +2879,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.5629901042871506</v>
+        <v>0.5607126157186553</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2890,7 +2887,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.5607126157186553</v>
+        <v>0.5604732150117424</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2898,7 +2895,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.5575175752443349</v>
+        <v>0.5591355909020941</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2906,7 +2903,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.5566997560921081</v>
+        <v>0.5574928125188847</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2914,7 +2911,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.5561259214614296</v>
+        <v>0.5566997560921081</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2922,7 +2919,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.5558653092776691</v>
+        <v>0.5561259214614296</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2930,7 +2927,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.5558400104209587</v>
+        <v>0.5551565209978193</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2938,7 +2935,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.5539806135719121</v>
+        <v>0.5541034093086916</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2946,7 +2943,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.5538250818462502</v>
+        <v>0.5540605168478767</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2954,7 +2951,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.5525008452061273</v>
+        <v>0.5506308014413039</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2962,7 +2959,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.5506308014413039</v>
+        <v>0.5491427337090109</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2970,7 +2967,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.5491427337090109</v>
+        <v>0.5482413168358629</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2978,7 +2975,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.5479411021296883</v>
+        <v>0.5479108571820257</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2994,7 +2991,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.5458353013793298</v>
+        <v>0.5418197558629174</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3002,7 +2999,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.5418197558629174</v>
+        <v>0.5397456404176868</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3010,7 +3007,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.5397456404176868</v>
+        <v>0.5378876936695196</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3018,7 +3015,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.5378876936695196</v>
+        <v>0.5354021906289506</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3026,7 +3023,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.5340931075112691</v>
+        <v>0.534746948095159</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3034,7 +3031,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.5335820788887919</v>
+        <v>0.5340931075112691</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3042,7 +3039,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.5331784062635372</v>
+        <v>0.5335820788887919</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3058,7 +3055,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.530451148698375</v>
+        <v>0.5308047662433526</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3066,7 +3063,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.5303661310381775</v>
+        <v>0.5291868882723967</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3074,7 +3071,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.5291868882723967</v>
+        <v>0.5239967965427268</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3082,7 +3079,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.527798583694477</v>
+        <v>0.5225046558987789</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3090,7 +3087,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.5262872763052475</v>
+        <v>0.5221745870936156</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3098,7 +3095,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.5225046558987789</v>
+        <v>0.5212389601321605</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3106,7 +3103,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.5212389601321605</v>
+        <v>0.5204814911054607</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3114,7 +3111,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.5204814911054607</v>
+        <v>0.5185143441313957</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3122,7 +3119,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.5204156864112988</v>
+        <v>0.5166719960071267</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3130,7 +3127,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.5153092159262673</v>
+        <v>0.5163669597628529</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3138,7 +3135,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.5150083624341002</v>
+        <v>0.5148418972852258</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3146,7 +3143,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.5148418972852258</v>
+        <v>0.513945224513553</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3154,7 +3151,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.5137735212168497</v>
+        <v>0.5130318644502228</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3162,7 +3159,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.5112806130754317</v>
+        <v>0.5119038324486509</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3170,7 +3167,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.5098267362450948</v>
+        <v>0.5093796932508741</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3178,7 +3175,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.5093796932508741</v>
+        <v>0.5052296899459283</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3186,7 +3183,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.5071858174235675</v>
+        <v>0.5036111969766708</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3194,7 +3191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.5052296899459283</v>
+        <v>0.5019224130715172</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3202,7 +3199,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.5035383531538269</v>
+        <v>0.5005312757225528</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3210,7 +3207,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.5010227924698956</v>
+        <v>0.4956075841432714</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3218,7 +3215,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.5005312757225528</v>
+        <v>0.4919759878230792</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3226,7 +3223,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.4987885955502678</v>
+        <v>0.4907393754326206</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3234,7 +3231,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.4974257205681469</v>
+        <v>0.4906574250257385</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3242,7 +3239,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.4973633605342906</v>
+        <v>0.4903588943466441</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3250,7 +3247,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.4964511549676556</v>
+        <v>0.4884503467974382</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3258,7 +3255,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.4938781842628888</v>
+        <v>0.4868671036115879</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3266,7 +3263,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.4932727593236956</v>
+        <v>0.4838404388886051</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3274,7 +3271,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.4931047350230702</v>
+        <v>0.4835220029440495</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3282,7 +3279,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.4919759878230792</v>
+        <v>0.4820548106057467</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3290,7 +3287,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.4906574250257385</v>
+        <v>0.4796799789280288</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3298,7 +3295,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.4884503467974382</v>
+        <v>0.4770504865631797</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3306,7 +3303,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.4848310804851796</v>
+        <v>0.4759896314693703</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3314,7 +3311,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.4835220029440495</v>
+        <v>0.4738392027715062</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3322,7 +3319,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.4829808104623798</v>
+        <v>0.4730771258550479</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3330,7 +3327,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.4787668489100492</v>
+        <v>0.4722513311559924</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3338,7 +3335,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.4783760443192895</v>
+        <v>0.4721445849560546</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3346,7 +3343,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.4777569020049521</v>
+        <v>0.4715578888830818</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3354,7 +3351,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.4759896314693703</v>
+        <v>0.4711297077392542</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3362,7 +3359,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.4711297077392542</v>
+        <v>0.4700298849289948</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3370,7 +3367,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.4700298849289948</v>
+        <v>0.4687490935030709</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3386,7 +3383,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.4632213566242789</v>
+        <v>0.4626687950123531</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3394,7 +3391,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.4586148437971473</v>
+        <v>0.4613461950777644</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3402,7 +3399,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.458531605793532</v>
+        <v>0.457137438609716</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3410,7 +3407,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.457137438609716</v>
+        <v>0.4535744898535892</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3418,7 +3415,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.4485256822572516</v>
+        <v>0.4512373622999035</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3426,7 +3423,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.446991240361325</v>
+        <v>0.4509295284110977</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3434,7 +3431,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.445782289178577</v>
+        <v>0.4469561882037563</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3442,7 +3439,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.4450557373032666</v>
+        <v>0.4464716471815535</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3450,7 +3447,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.4430331190774026</v>
+        <v>0.4450557373032666</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3458,7 +3455,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.4428691055276659</v>
+        <v>0.4449795852373217</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3466,7 +3463,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.4414803906242835</v>
+        <v>0.4447858069058914</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3474,7 +3471,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.4407621413564162</v>
+        <v>0.4437896587140222</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3490,7 +3487,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.4392401111370869</v>
+        <v>0.4379655217933822</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3498,7 +3495,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.4379655217933822</v>
+        <v>0.4367453430961969</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3506,7 +3503,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.4378866879164276</v>
+        <v>0.4366726983165912</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3522,7 +3519,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.4340068089712528</v>
+        <v>0.4335066837365993</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3530,7 +3527,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.4339135185418836</v>
+        <v>0.4305644235662973</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3538,7 +3535,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.4305644235662973</v>
+        <v>0.4295433466806229</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3546,7 +3543,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.4303015555314709</v>
+        <v>0.4279455376215202</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3554,7 +3551,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.4303010929019466</v>
+        <v>0.4279455376215202</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3562,7 +3559,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.4302252548876146</v>
+        <v>0.4272208803678561</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3570,7 +3567,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.4295433466806229</v>
+        <v>0.4268922880094888</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3578,7 +3575,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.4295183382512884</v>
+        <v>0.4230983242157893</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3586,7 +3583,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.4286293654091999</v>
+        <v>0.4230859666060125</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3594,7 +3591,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.4279455376215202</v>
+        <v>0.4229171950403439</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3602,7 +3599,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.4279455376215202</v>
+        <v>0.4215804184184584</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3610,7 +3607,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.4241463048752976</v>
+        <v>0.4203884777201519</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3618,7 +3615,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.4240090773817702</v>
+        <v>0.4203148185815593</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3626,7 +3623,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.4215804184184584</v>
+        <v>0.4202634598083856</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3634,7 +3631,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.4214795544649526</v>
+        <v>0.4202634598083856</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3642,7 +3639,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.4203884777201519</v>
+        <v>0.4202167905928798</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3650,7 +3647,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.4202634598083856</v>
+        <v>0.4201676821649081</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3658,7 +3655,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.4202634598083856</v>
+        <v>0.4191280434904807</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3666,7 +3663,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.4198724012642003</v>
+        <v>0.4183124564394192</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3674,7 +3671,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.4198429652649338</v>
+        <v>0.4180578901801395</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3682,7 +3679,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.4191280434904807</v>
+        <v>0.4176251710767054</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3690,7 +3687,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.4183124564394192</v>
+        <v>0.4170085195510294</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3698,7 +3695,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.4176251710767054</v>
+        <v>0.4155598635686157</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3706,7 +3703,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.4170085195510294</v>
+        <v>0.4153554682537239</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3714,7 +3711,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.4154771127971566</v>
+        <v>0.4147927587732723</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3730,7 +3727,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.4134483322521545</v>
+        <v>0.4134715503183131</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3738,7 +3735,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.413012883180061</v>
+        <v>0.4134483322521545</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3746,7 +3743,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.41133860742312</v>
+        <v>0.4132707158374163</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3754,7 +3751,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.4095599456327921</v>
+        <v>0.413012883180061</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3762,7 +3759,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.4066794821409128</v>
+        <v>0.41133860742312</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3770,7 +3767,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.4064141077961447</v>
+        <v>0.4108721453902744</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3778,7 +3775,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.4063279017039909</v>
+        <v>0.4095599456327921</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3786,7 +3783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.4058261048004352</v>
+        <v>0.4066794821409128</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3794,7 +3791,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.4054095253239303</v>
+        <v>0.4060166179692897</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3802,7 +3799,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.4041681690925323</v>
+        <v>0.4054095253239303</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3810,7 +3807,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.4026070063004841</v>
+        <v>0.4017843196811717</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3818,7 +3815,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.4017843196811717</v>
+        <v>0.4006753469859448</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3826,7 +3823,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.4015742664425566</v>
+        <v>0.3973019697083033</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3834,7 +3831,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.4012122050759979</v>
+        <v>0.39588192808678</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3842,7 +3839,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.4011729183539468</v>
+        <v>0.3956697987592428</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3850,7 +3847,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.4010499675818167</v>
+        <v>0.3944733812166712</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3858,7 +3855,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.4010356874119196</v>
+        <v>0.392877674763578</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3866,7 +3863,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.4006753469859448</v>
+        <v>0.3919430608396197</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3874,7 +3871,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.3973019697083033</v>
+        <v>0.390137626698857</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3882,7 +3879,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.3970424693992274</v>
+        <v>0.3877441804217929</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3890,7 +3887,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.3968315266293481</v>
+        <v>0.3874402779635573</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3898,7 +3895,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.39588192808678</v>
+        <v>0.3870661875093846</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3906,7 +3903,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.3931076073714246</v>
+        <v>0.3863611038632124</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3914,7 +3911,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.3912302078303869</v>
+        <v>0.3846231856023692</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3922,7 +3919,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.3908627970839764</v>
+        <v>0.3831539598161975</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3930,7 +3927,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.3874402779635573</v>
+        <v>0.3821697673131907</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3938,7 +3935,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.3870661875093846</v>
+        <v>0.379780938617148</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3946,7 +3943,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.3854034334322989</v>
+        <v>0.3775498617706268</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3954,7 +3951,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.3831539598161975</v>
+        <v>0.375542862587793</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3962,7 +3959,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.3821301587236776</v>
+        <v>0.3746340393094201</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3970,7 +3967,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.3816381488575262</v>
+        <v>0.3738946605466278</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3978,7 +3975,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.3806006738295649</v>
+        <v>0.3724358717832146</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3986,7 +3983,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.3803886896094544</v>
+        <v>0.372433309904489</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3994,7 +3991,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.379780938617148</v>
+        <v>0.37235708865649</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4002,7 +3999,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.3769922595355946</v>
+        <v>0.3721760188771859</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4010,7 +4007,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.375542862587793</v>
+        <v>0.3720558782567707</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4018,7 +4015,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.3752592447261249</v>
+        <v>0.3702664150193469</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4026,7 +4023,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.3750616253229844</v>
+        <v>0.3694550840635689</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4034,7 +4031,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.3750011300906007</v>
+        <v>0.3690950352165936</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4042,7 +4039,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.3745043829609351</v>
+        <v>0.3683112384432754</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4050,7 +4047,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.3738946605466278</v>
+        <v>0.368059587166921</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4058,7 +4055,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.3724358717832146</v>
+        <v>0.3674978822997792</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4066,7 +4063,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.3720558782567707</v>
+        <v>0.3668835075221482</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4074,7 +4071,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.371591008993899</v>
+        <v>0.3667512022513424</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4082,7 +4079,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.3710965040997809</v>
+        <v>0.3659859702898689</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4090,7 +4087,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.3696815245062133</v>
+        <v>0.3658606982477397</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4098,7 +4095,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.3694550840635689</v>
+        <v>0.3657812117929931</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4106,7 +4103,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.3692881182574723</v>
+        <v>0.3650132217386366</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4114,7 +4111,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.368059587166921</v>
+        <v>0.3632909825058748</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4122,7 +4119,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.3674978822997792</v>
+        <v>0.3632712680959567</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4130,7 +4127,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.3672040641486769</v>
+        <v>0.3630598994234797</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4138,7 +4135,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.3663605456225869</v>
+        <v>0.3622852828258993</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4146,7 +4143,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.3660784499181231</v>
+        <v>0.3607987651269715</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4154,7 +4151,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.3659859702898689</v>
+        <v>0.3604029572712706</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4162,7 +4159,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.3658199367453172</v>
+        <v>0.3600941541143967</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4170,7 +4167,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.3657812117929931</v>
+        <v>0.3600078943041434</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4178,7 +4175,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.3652604809006628</v>
+        <v>0.3597364394267171</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4186,7 +4183,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.3643082827162547</v>
+        <v>0.359215340687435</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4194,7 +4191,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.3633374952336552</v>
+        <v>0.3576132916855743</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4202,7 +4199,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.3630598994234797</v>
+        <v>0.3557718215825167</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4210,7 +4207,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.3621077578645415</v>
+        <v>0.3556916927473888</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4218,7 +4215,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.3610150510183647</v>
+        <v>0.3552657292957377</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4226,7 +4223,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.3607987651269715</v>
+        <v>0.35004690902697</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4234,7 +4231,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.3587819020444463</v>
+        <v>0.3496041929512843</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4242,7 +4239,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.3576766000213052</v>
+        <v>0.3493050896681686</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4250,7 +4247,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.3576132916855743</v>
+        <v>0.3487937084923292</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4258,7 +4255,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.3573668222843089</v>
+        <v>0.3483138100687071</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4266,7 +4263,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.3557948115917027</v>
+        <v>0.3482405422011492</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4274,7 +4271,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.3557718215825167</v>
+        <v>0.3482263328127588</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4282,7 +4279,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.3553904435818198</v>
+        <v>0.3476516732295849</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4290,7 +4287,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.3525450538305681</v>
+        <v>0.3458045387842776</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4298,7 +4295,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.3520813336015762</v>
+        <v>0.3458045387842776</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4306,7 +4303,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.3500903034733269</v>
+        <v>0.3455381860027507</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4314,7 +4311,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.3492805505594432</v>
+        <v>0.3453089522693824</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4322,7 +4319,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.3488983410944004</v>
+        <v>0.3440111694334993</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4330,7 +4327,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.3483138100687071</v>
+        <v>0.3420365902049252</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4338,7 +4335,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.3477251120752665</v>
+        <v>0.3412429529235739</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4346,7 +4343,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.3476516732295849</v>
+        <v>0.3384212238047375</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4354,7 +4351,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.3462701795329468</v>
+        <v>0.3380254479229456</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4362,7 +4359,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.3458045387842776</v>
+        <v>0.3377751727017118</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4370,7 +4367,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.3458045387842776</v>
+        <v>0.3368280314792991</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4378,7 +4375,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.3431642598888867</v>
+        <v>0.33675400347863</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4386,7 +4383,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.343005452981358</v>
+        <v>0.3364401270387474</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4394,7 +4391,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.3427652572624587</v>
+        <v>0.336097282592317</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4402,7 +4399,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.3392276243535044</v>
+        <v>0.3356191027339426</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4410,7 +4407,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.3380254479229459</v>
+        <v>0.3301275171111515</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4418,7 +4415,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.3377751727017118</v>
+        <v>0.3287914313291103</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4426,7 +4423,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.3370808927680407</v>
+        <v>0.3274089100338768</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4434,7 +4431,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.3366680569068428</v>
+        <v>0.3238680762372417</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4442,7 +4439,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.3352218906525115</v>
+        <v>0.3231638475561993</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4450,7 +4447,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.3338947992792869</v>
+        <v>0.3210859052459847</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4458,7 +4455,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.3292117452955097</v>
+        <v>0.320554935879386</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4466,7 +4463,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.3291668394181357</v>
+        <v>0.3203855360381964</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4474,7 +4471,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.3283024960362684</v>
+        <v>0.3172335357077642</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4482,7 +4479,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.3276935483067991</v>
+        <v>0.3157324452319232</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4490,7 +4487,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.3274089100338768</v>
+        <v>0.3156405046877757</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4498,7 +4495,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.3231638475561993</v>
+        <v>0.3155084984036185</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4506,7 +4503,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.3172335357077642</v>
+        <v>0.3151953099438609</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4514,7 +4511,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.3155084984036185</v>
+        <v>0.3141955263311127</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4522,7 +4519,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.3141446794691294</v>
+        <v>0.3138636522469067</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4530,7 +4527,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.3109983032671966</v>
+        <v>0.3137631737243918</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4538,7 +4535,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.3104009382640174</v>
+        <v>0.312814572341326</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4546,7 +4543,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.3101388777632794</v>
+        <v>0.3125279356044413</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4554,7 +4551,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.3099401385619029</v>
+        <v>0.3090695173210469</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4562,7 +4559,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.3081390601959699</v>
+        <v>0.3069439898299626</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4570,7 +4567,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.3058508317340864</v>
+        <v>0.304422056182758</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4578,7 +4575,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.3053318076090494</v>
+        <v>0.3028496635930382</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4586,7 +4583,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.3042618250133546</v>
+        <v>0.3016859957964448</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4594,7 +4591,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.3031400049007065</v>
+        <v>0.3005180761281006</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4602,7 +4599,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.3028496635930382</v>
+        <v>0.3003380889131331</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4610,7 +4607,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.3022422551780339</v>
+        <v>0.2983433461720817</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4618,7 +4615,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.3004911147587377</v>
+        <v>0.2970308286428671</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4626,7 +4623,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.3003380889131331</v>
+        <v>0.2966991263799397</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4634,7 +4631,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.2981999687713901</v>
+        <v>0.2938046981376539</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4642,7 +4639,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.2966991263799397</v>
+        <v>0.293378109991584</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4650,7 +4647,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.2963465203173574</v>
+        <v>0.2925883935520084</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4658,7 +4655,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.2951117429582104</v>
+        <v>0.2883821911469979</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4666,7 +4663,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.2933221949581677</v>
+        <v>0.2882452513734839</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4674,7 +4671,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.2883821911469979</v>
+        <v>0.2879328068385874</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4682,7 +4679,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.2882452513734839</v>
+        <v>0.2867251830735196</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4690,7 +4687,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.2879783817506025</v>
+        <v>0.284782691308306</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4698,7 +4695,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.287403318721358</v>
+        <v>0.2834298715181993</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4706,7 +4703,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.284782691308306</v>
+        <v>0.2818756271144127</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4714,7 +4711,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.2836847204950546</v>
+        <v>0.2742775048131405</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4722,7 +4719,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.2834298715181993</v>
+        <v>0.273508387680228</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4730,7 +4727,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.2816534959615973</v>
+        <v>0.2727845630434933</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4738,7 +4735,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.2789469420390909</v>
+        <v>0.2724573158368158</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4746,7 +4743,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.2763175178726818</v>
+        <v>0.2716224699413552</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4754,7 +4751,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.2761627461081033</v>
+        <v>0.2709190637447305</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4762,7 +4759,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.2728998958906834</v>
+        <v>0.2679870027613964</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4770,7 +4767,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.2727845630434933</v>
+        <v>0.2678752308366619</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4778,7 +4775,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.2707117614559591</v>
+        <v>0.2668516801433496</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4786,7 +4783,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.2690360650141337</v>
+        <v>0.2640629270635109</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4794,7 +4791,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.2678752308366619</v>
+        <v>0.2623141337016781</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4802,7 +4799,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.2665038766492853</v>
+        <v>0.2623141337016781</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4810,7 +4807,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.265647627577194</v>
+        <v>0.2615339977465001</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4818,7 +4815,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.2652251308779496</v>
+        <v>0.2611554694862064</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4826,7 +4823,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.2643574009911347</v>
+        <v>0.2603897494638452</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4834,7 +4831,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.2629993726493753</v>
+        <v>0.2589281682838298</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4842,7 +4839,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.2623141337016781</v>
+        <v>0.2582804288802887</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4850,7 +4847,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.2618851042699677</v>
+        <v>0.2575889330191226</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4858,7 +4855,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.2611554694862064</v>
+        <v>0.2536468636505407</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4866,7 +4863,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.260391056778601</v>
+        <v>0.2529284248894053</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4874,7 +4871,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.2601784434378014</v>
+        <v>0.2473682567935702</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4882,7 +4879,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.2591496810982383</v>
+        <v>0.2457620674481023</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4890,7 +4887,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.2589281682838298</v>
+        <v>0.2446930927574533</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4898,7 +4895,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.2573042368168554</v>
+        <v>0.2424864473713109</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4906,7 +4903,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.256187765088715</v>
+        <v>0.2415501782895011</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4914,7 +4911,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.2539248542795649</v>
+        <v>0.2410781181147006</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4922,7 +4919,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.2507487911803821</v>
+        <v>0.2410380113842601</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4930,7 +4927,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.2486520409724775</v>
+        <v>0.2367155585989369</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4938,7 +4935,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.2473011026195708</v>
+        <v>0.2329664927909685</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4946,7 +4943,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.2468845562679345</v>
+        <v>0.2323720181943543</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4954,7 +4951,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.2457620674481023</v>
+        <v>0.2294215109900506</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4962,7 +4959,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.2446930927574533</v>
+        <v>0.2275285758061809</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4970,7 +4967,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.2436736215975297</v>
+        <v>0.2270713020198816</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4978,7 +4975,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.242958021378016</v>
+        <v>0.2257082468884581</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4986,7 +4983,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.2417955662890436</v>
+        <v>0.2252441125753895</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4994,7 +4991,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.2410781181147006</v>
+        <v>0.224819295412136</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5002,7 +4999,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.2397135485828592</v>
+        <v>0.2238484861427192</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5010,7 +5007,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.2380652492067454</v>
+        <v>0.2219677217077456</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5018,7 +5015,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.2327798703534276</v>
+        <v>0.2214113002163165</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5026,7 +5023,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.2294215109900506</v>
+        <v>0.2175549215503194</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5034,7 +5031,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.2281626161120918</v>
+        <v>0.2167555014382627</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5042,7 +5039,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.2275285758061809</v>
+        <v>0.2156971127494118</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5050,7 +5047,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.2266027874251231</v>
+        <v>0.214232333203582</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5058,7 +5055,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.2257082468884581</v>
+        <v>0.2138238512456005</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5066,7 +5063,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.224819295412136</v>
+        <v>0.2118994175417692</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5074,7 +5071,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.2171600294000533</v>
+        <v>0.2109670670834902</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5082,7 +5079,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.2162595728385079</v>
+        <v>0.2098234428608821</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5090,7 +5087,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.2148513423413383</v>
+        <v>0.2096639475827071</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5098,7 +5095,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.2141458877862543</v>
+        <v>0.2085003945963861</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5106,7 +5103,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.2118994175417692</v>
+        <v>0.2080902458738032</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5114,7 +5111,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.2101746393211843</v>
+        <v>0.2055223933513284</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5122,7 +5119,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.2093366717584211</v>
+        <v>0.2020079357479316</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5130,7 +5127,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.2085715231984864</v>
+        <v>0.2016471925304721</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5138,7 +5135,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.2085003945963861</v>
+        <v>0.1970921590576848</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5146,7 +5143,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.2016471925304721</v>
+        <v>0.1964375791736757</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5154,7 +5151,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.1963534908517537</v>
+        <v>0.1829465819380292</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5162,7 +5159,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.1906819026474282</v>
+        <v>0.1808112268170483</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5170,7 +5167,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.1808112268170483</v>
+        <v>0.1801474231148397</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5178,7 +5175,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.180174327806216</v>
+        <v>0.1795386190247117</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5186,7 +5183,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.1796934956954721</v>
+        <v>0.1671018687389609</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5194,7 +5191,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.1680270659164556</v>
+        <v>0.1661978573388565</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5202,7 +5199,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.1661978573388565</v>
+        <v>0.1627893649951198</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5218,7 +5215,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.1575608435165983</v>
+        <v>0.1551608487749248</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5226,7 +5223,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.1557126393766468</v>
+        <v>0.1545018185393983</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5234,7 +5231,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.1551608487749248</v>
+        <v>0.153921440834929</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5242,7 +5239,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.1539550742858289</v>
+        <v>0.1534027420027273</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5258,7 +5255,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.1501109737837985</v>
+        <v>0.1502170385830941</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5266,7 +5263,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.1498131017730431</v>
+        <v>0.1497766215818221</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5274,7 +5271,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.1497766215818221</v>
+        <v>0.1466387358884946</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5282,7 +5279,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.1371836076833666</v>
+        <v>0.1446414425690929</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5290,7 +5287,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.1346782180255326</v>
+        <v>0.1444031238896342</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5298,7 +5295,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.132314509406511</v>
+        <v>0.1432696560962501</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5306,7 +5303,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.1307487324784</v>
+        <v>0.1398337728384045</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5314,7 +5311,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.1287749070911843</v>
+        <v>0.1334807771222093</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5322,7 +5319,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.1272942204866685</v>
+        <v>0.1331345654407052</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5330,7 +5327,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.1235367627693225</v>
+        <v>0.132314509406511</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5338,7 +5335,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.1221217745750844</v>
+        <v>0.1307487324784</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5346,7 +5343,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.121263152572634</v>
+        <v>0.1235367627693225</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5354,7 +5351,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.1206295708884222</v>
+        <v>0.1221217745750844</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5362,7 +5359,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.1153816893925645</v>
+        <v>0.1210023920053676</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5370,7 +5367,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.1140277174688171</v>
+        <v>0.1180544757321715</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5378,7 +5375,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.1101944626996734</v>
+        <v>0.1125550158712931</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5386,7 +5383,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.09976670607521676</v>
+        <v>0.1101944626996734</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5394,7 +5391,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.09883647106760374</v>
+        <v>0.1042614269403135</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5402,7 +5399,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.09510626867414973</v>
+        <v>0.09621981736663687</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5410,7 +5407,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.08633984702382724</v>
+        <v>0.09608080863931923</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5418,7 +5415,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.08102285629274353</v>
+        <v>0.08633984702382724</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5426,7 +5423,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.07802352192566908</v>
+        <v>0.08382956187275914</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5434,7 +5431,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.07756593227834152</v>
+        <v>0.07802352192566908</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5442,7 +5439,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.07100495740188784</v>
+        <v>0.07756593227834152</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5458,7 +5455,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.06434868894045165</v>
+        <v>0.07100495740188784</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5466,7 +5463,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.05999140715093065</v>
+        <v>0.06434868894045165</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5474,7 +5471,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.05949032323363967</v>
+        <v>0.05350460886394548</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5482,7 +5479,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.05302730838664504</v>
+        <v>0.04602419293129345</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5490,7 +5487,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.04602419293129345</v>
+        <v>0.02988096159308218</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5506,7 +5503,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.02932090858676206</v>
+        <v>0.02586383082105614</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -5514,7 +5511,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.02586383082105614</v>
+        <v>0.02100972261502676</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5522,7 +5519,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0.02100972261502676</v>
+        <v>0.01841827839795784</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -5530,14 +5527,6 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.01820315647436166</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B470">
         <v>0.005372134977273513</v>
       </c>
     </row>
